--- a/medicine/Enfance/Christophe_Léon/Christophe_Léon.xlsx
+++ b/medicine/Enfance/Christophe_Léon/Christophe_Léon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Christophe_L%C3%A9on</t>
+          <t>Christophe_Léon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christophe Léon est un auteur et romancier français. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Christophe_L%C3%A9on</t>
+          <t>Christophe_Léon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il commence par écrire des romans pour adultes, et en 2006, il se lance dans l’écriture jeunesse avec Longtemps. 
 Christophe Léon publie, outre des romans et essais en littérature générale, des romans jeunesse. Le roman Délit de fuite, paru en 2011 aux éditions La joie de lire, a été adapté pour la télévision en 2012 sous le même titre, avec dans les rôles principaux Éric Cantona et Mathilda May.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Christophe_L%C3%A9on</t>
+          <t>Christophe_Léon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Tu t'appelles Amandine Keddha, Le Rouergue, coll. « La brune », 2002
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tu t'appelles Amandine Keddha, Le Rouergue, coll. « La brune », 2002
 Palavas la Banche, Le Rouergue, coll. « La brune », 2004
 Journal d'un étudiant japonais à Paris, éd. du Serpent à plumes, 2007
 Beaux-arts, col, Fulgurances, éd. du Somnambule équivoque, 2008
@@ -556,9 +575,43 @@
 FRANS 68, éd. Ramsay, coll. Littérature Roman, août 2021
 L'insurrection impériale, éd. Le Muscadier, coll. Le Muscadier Noir, janvier 2023
 Imago, éd. Ramsay, coll. Littérature Roman, mai 2023
-Si c'est une femme, Independently Published édition, Littérature Roman, septembre 2023
-Romans jeunesse
-Longtemps, L'école des loisirs, coll. « Neuf », 2006
+Si c'est une femme, Independently Published édition, Littérature Roman, septembre 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Christophe_Léon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_L%C3%A9on</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Longtemps, L'école des loisirs, coll. « Neuf », 2006
 Nénuphar Grigrimaldit, Alice éditions, avril 2007
 Lilas doit pleurer et les moustiques piquer Jeancri, éd. Oskar jeunesse, 2007
 Pas demain la veille, éditions Thierry Magnier, 2007
@@ -568,9 +621,9 @@
 Silence, on irradie, éd. Thierry Magnier, 2009 ; réd. éd. Klett (Allemagne), avec vocabulaire français/allemand et appareil pédagogique, août 2011
 Bleu Toxic - avril 2010, Le Seuil, coll. « Karactère(s) » —
 Granpa', éd. Thierry Magnier, août 2010
-Délit de fuite[1], La Joie de Lire, coll. Encrage, janvier 2011 adapté à la télévision sous le même titre par Thierry Binisti en 2012.
+Délit de fuite, La Joie de Lire, coll. Encrage, janvier 2011 adapté à la télévision sous le même titre par Thierry Binisti en 2012.
 Argentina, Argentina..., Oskar éditeur, août 2011
-Le goût de la tomate, éd. Thierry Magnier, coll. Petite Poche, octobre 2011  - Prix Bernard Versele 2014[2]
+Le goût de la tomate, éd. Thierry Magnier, coll. Petite Poche, octobre 2011  - Prix Bernard Versele 2014
 Dernier métro, éd. La joie de lire, coll. Encrage, janvier 2012
 La randonnée, éd. Thierry Magnier, février 2012
 Écran total, éd. Thierry Magnier, mars 2012, coll. Petite Poche
@@ -604,12 +657,80 @@
 Haut les cœurs, éd. D'Eux, coll. Hors collection, (illustrations Elsa Oriol), octobre 2022
 Tag, éd. Le Muscadier, coll. Rester Vivant, Août 2023
 #StopAsiaHate, (co-auteur Patricia Vigier) éd. Le Muscadier, coll. Rester Vivant, Janvier 2024
-L'affaire Ryan Lacombe, collection Polar, éd. Oskar, Février 2024
-Nouvelles
-Je suis Richard Brautigan, coll. « Short Stories », éd. Somnambule équivoque, 2009
-Gros malheurs, coll. « Short Stories », éd. Somnambule équivoque, avril 2011
-Nouvelles jeunesse
-Désobéis !, éditions Thierry Magnier, coll. Nouvelles, octobre 2011
+L'affaire Ryan Lacombe, collection Polar, éd. Oskar, Février 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Christophe_Léon</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_L%C3%A9on</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Je suis Richard Brautigan, coll. « Short Stories », éd. Somnambule équivoque, 2009
+Gros malheurs, coll. « Short Stories », éd. Somnambule équivoque, avril 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Christophe_Léon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_L%C3%A9on</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nouvelles jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Désobéis !, éditions Thierry Magnier, coll. Nouvelles, octobre 2011
 Pense bêtes, éd Le Muscadier, coll. Place du marché, octobre 2013
 Changement de braquets et autres récits, éd. Klett (Allemagne), coll. Petite poche, trois nouvelles tirées du recueil Désobéis ! avec vocabulaire français/allemand et appareil pédagogique, août 2014
 Changement de braquets suivi de l'histoire "Le refus", éd. Diesterweg (Allemagne), coll. Neusprachliche Bibliotek, deux nouvelles tirées du recueil Désobéis !, janvier 2015
@@ -618,83 +739,227 @@
 Désobéis !, éditions Cornelsen (Allemagne), juin 2016
 Pas bête(s) !, éd Le Muscadier, coll. Rester Vivant, octobre 2017
 L'art de ne pas être des moutons, éd Le Muscadier, coll. Rester Vivant, mai 2018
-Black Friday, éd Le Muscadier, coll. Rester Vivant, février 2020
-Participation
-Collectif, Nouvelles re-vertes, éd. Thierry Magnier, 2008 ; recueil de nouvelles : écriture d'une nouvelle, aux côtés de Mickaël Ollivier, Jean-Marc Mathis et al.
+Black Friday, éd Le Muscadier, coll. Rester Vivant, février 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Christophe_Léon</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_L%C3%A9on</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nouvelles jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Participation</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Collectif, Nouvelles re-vertes, éd. Thierry Magnier, 2008 ; recueil de nouvelles : écriture d'une nouvelle, aux côtés de Mickaël Ollivier, Jean-Marc Mathis et al.
 Collectif, Et si jamais..., éditions Thierry Magnier, coll. Nouvelles, juin 2016
-Collectif, Tu vas rire !, éditions Thierry Magnier, coll. Nouvelles, septembre 2016 (avec l'association Le Rire Médecin)
-Récit autobiographique
-Mi-Figue mi-raisin, La Joie de Lire, coll. « Rétroviseur », août 2009
-Essais
-Écoloco, une alter-friction, coll. « Dérapages », éd. Somnambule équivoque, 2008
-Écran plat, coll. « Dérapages », éd. Somnambule équivoque, 2009
-Théâtre
-Quatre jours dans la vie de Thorpe, mise en scène Jean-Pierre Vidotto, 2006/2007
-GroTtesKe ! Contes de l'évolution ordinaire, Compagnie Histoire De Jouer [3], mise en scène Julie Jézéquel, 2013</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Christophe_L%C3%A9on</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Christophe_L%C3%A9on</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Collectif, Tu vas rire !, éditions Thierry Magnier, coll. Nouvelles, septembre 2016 (avec l'association Le Rire Médecin)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Christophe_Léon</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_L%C3%A9on</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Récit autobiographique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Mi-Figue mi-raisin, La Joie de Lire, coll. « Rétroviseur », août 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Christophe_Léon</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_L%C3%A9on</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Écoloco, une alter-friction, coll. « Dérapages », éd. Somnambule équivoque, 2008
+Écran plat, coll. « Dérapages », éd. Somnambule équivoque, 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Christophe_Léon</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_L%C3%A9on</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Quatre jours dans la vie de Thorpe, mise en scène Jean-Pierre Vidotto, 2006/2007
+GroTtesKe ! Contes de l'évolution ordinaire, Compagnie Histoire De Jouer , mise en scène Julie Jézéquel, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Christophe_Léon</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_L%C3%A9on</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>La guerre au bout du couloir : Prix NRP de littérature jeunesse 2009[réf. souhaitée]
-Délit de fuite : Prix Gayant Lecture 2013[4]
-Argentina, Argentina... : Prix Tatoulu Noir 2013[4]
-Le goût de la tomate : Prix Bernard Versele 2014[4],[2], catégorie 5 chouettes
-Reato di fuga (Délit de fuite) : Prix Andersen (Italie) Meilleur livre + de 15 ans 2016 [5]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Christophe_L%C3%A9on</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Christophe_L%C3%A9on</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La guerre au bout du couloir : Prix NRP de littérature jeunesse 2009[réf. souhaitée]
+Délit de fuite : Prix Gayant Lecture 2013
+Argentina, Argentina... : Prix Tatoulu Noir 2013
+Le goût de la tomate : Prix Bernard Versele 2014 catégorie 5 chouettes
+Reato di fuga (Délit de fuite) : Prix Andersen (Italie) Meilleur livre + de 15 ans 2016 </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Christophe_Léon</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_L%C3%A9on</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Adaptation audiovisuelle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Délit de fuite, adaptation télévisuelle du roman éponyme pour France 2 (1re diffusion 2012, réalisateur Thierry Binisti, avec pour acteurs principaux : Éric Cantona, Mathilda May[6]</t>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Délit de fuite, adaptation télévisuelle du roman éponyme pour France 2 (1re diffusion 2012, réalisateur Thierry Binisti, avec pour acteurs principaux : Éric Cantona, Mathilda May</t>
         </is>
       </c>
     </row>
